--- a/fuzzy_stability_analysis/results/fuz_stability_link/XS/fuzziness_intervals.xlsx
+++ b/fuzzy_stability_analysis/results/fuz_stability_link/XS/fuzziness_intervals.xlsx
@@ -27,28 +27,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="20">
   <si>
-    <t>st_0.4_const_ass</t>
-  </si>
-  <si>
-    <t>st_0.6_const_ass</t>
-  </si>
-  <si>
     <t>st_0.8_const_ass</t>
   </si>
   <si>
     <t>st_1_const_ass</t>
   </si>
   <si>
-    <t>st_0.4_thr_0.5</t>
+    <t>st_1.2_const_ass</t>
   </si>
   <si>
-    <t>st_0.6_thr_0.5</t>
+    <t>st_1.4_const_ass</t>
   </si>
   <si>
     <t>st_0.8_thr_0.5</t>
   </si>
   <si>
     <t>st_1_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.2_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.4_thr_0.5</t>
   </si>
   <si>
     <t>n_obs</t>
@@ -488,25 +488,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E2">
-        <v>0.998</v>
+        <v>0.982</v>
       </c>
       <c r="F2">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G2">
-        <v>0.996</v>
+        <v>0.985</v>
       </c>
       <c r="H2">
-        <v>0.993</v>
+        <v>0.972</v>
       </c>
       <c r="I2">
-        <v>0.985</v>
+        <v>0.945</v>
       </c>
       <c r="J2">
         <v>887</v>
@@ -517,28 +517,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="D3">
-        <v>0.996</v>
+        <v>0.972</v>
       </c>
       <c r="E3">
-        <v>0.988</v>
+        <v>0.949</v>
       </c>
       <c r="F3">
-        <v>0.997</v>
+        <v>0.989</v>
       </c>
       <c r="G3">
-        <v>0.995</v>
+        <v>0.975</v>
       </c>
       <c r="H3">
-        <v>0.989</v>
+        <v>0.951</v>
       </c>
       <c r="I3">
-        <v>0.975</v>
+        <v>0.914</v>
       </c>
       <c r="J3">
         <v>157</v>
@@ -549,28 +549,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="C4">
-        <v>0.999</v>
+        <v>0.981</v>
       </c>
       <c r="D4">
-        <v>0.993</v>
+        <v>0.957</v>
       </c>
       <c r="E4">
-        <v>0.981</v>
+        <v>0.922</v>
       </c>
       <c r="F4">
-        <v>0.997</v>
+        <v>0.986</v>
       </c>
       <c r="G4">
-        <v>0.994</v>
+        <v>0.968</v>
       </c>
       <c r="H4">
-        <v>0.986</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="I4">
-        <v>0.968</v>
+        <v>0.889</v>
       </c>
       <c r="J4">
         <v>70</v>
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="C5">
-        <v>0.999</v>
+        <v>0.978</v>
       </c>
       <c r="D5">
-        <v>0.993</v>
+        <v>0.951</v>
       </c>
       <c r="E5">
-        <v>0.978</v>
+        <v>0.918</v>
       </c>
       <c r="F5">
-        <v>0.997</v>
+        <v>0.986</v>
       </c>
       <c r="G5">
-        <v>0.994</v>
+        <v>0.965</v>
       </c>
       <c r="H5">
-        <v>0.986</v>
+        <v>0.93</v>
       </c>
       <c r="I5">
-        <v>0.965</v>
+        <v>0.884</v>
       </c>
       <c r="J5">
         <v>35</v>
@@ -613,28 +613,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.998</v>
+        <v>0.971</v>
       </c>
       <c r="C6">
-        <v>0.99</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D6">
-        <v>0.971</v>
+        <v>0.899</v>
       </c>
       <c r="E6">
-        <v>0.9409999999999999</v>
+        <v>0.854</v>
       </c>
       <c r="F6">
-        <v>0.995</v>
+        <v>0.963</v>
       </c>
       <c r="G6">
-        <v>0.985</v>
+        <v>0.929</v>
       </c>
       <c r="H6">
-        <v>0.963</v>
+        <v>0.879</v>
       </c>
       <c r="I6">
-        <v>0.929</v>
+        <v>0.824</v>
       </c>
       <c r="J6">
         <v>31</v>
@@ -645,28 +645,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.996</v>
+        <v>0.971</v>
       </c>
       <c r="C7">
-        <v>0.988</v>
+        <v>0.952</v>
       </c>
       <c r="D7">
-        <v>0.971</v>
+        <v>0.925</v>
       </c>
       <c r="E7">
-        <v>0.952</v>
+        <v>0.89</v>
       </c>
       <c r="F7">
-        <v>0.993</v>
+        <v>0.963</v>
       </c>
       <c r="G7">
-        <v>0.983</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="H7">
-        <v>0.963</v>
+        <v>0.904</v>
       </c>
       <c r="I7">
-        <v>0.9389999999999999</v>
+        <v>0.856</v>
       </c>
       <c r="J7">
         <v>23</v>
@@ -677,28 +677,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.986</v>
+        <v>0.912</v>
       </c>
       <c r="C8">
-        <v>0.951</v>
+        <v>0.874</v>
       </c>
       <c r="D8">
-        <v>0.912</v>
+        <v>0.825</v>
       </c>
       <c r="E8">
-        <v>0.874</v>
+        <v>0.782</v>
       </c>
       <c r="F8">
-        <v>0.982</v>
+        <v>0.903</v>
       </c>
       <c r="G8">
-        <v>0.946</v>
+        <v>0.862</v>
       </c>
       <c r="H8">
-        <v>0.903</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="I8">
-        <v>0.862</v>
+        <v>0.757</v>
       </c>
       <c r="J8">
         <v>10</v>
@@ -709,28 +709,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.843</v>
+        <v>0.766</v>
       </c>
       <c r="C9">
-        <v>0.803</v>
+        <v>0.732</v>
       </c>
       <c r="D9">
-        <v>0.766</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="E9">
-        <v>0.732</v>
+        <v>0.669</v>
       </c>
       <c r="F9">
-        <v>0.841</v>
+        <v>0.762</v>
       </c>
       <c r="G9">
-        <v>0.8</v>
+        <v>0.725</v>
       </c>
       <c r="H9">
-        <v>0.762</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="I9">
-        <v>0.725</v>
+        <v>0.655</v>
       </c>
       <c r="J9">
         <v>14</v>
@@ -741,28 +741,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.804</v>
+        <v>0.697</v>
       </c>
       <c r="C10">
-        <v>0.743</v>
+        <v>0.648</v>
       </c>
       <c r="D10">
-        <v>0.697</v>
+        <v>0.62</v>
       </c>
       <c r="E10">
-        <v>0.648</v>
+        <v>0.617</v>
       </c>
       <c r="F10">
-        <v>0.803</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="G10">
-        <v>0.741</v>
+        <v>0.643</v>
       </c>
       <c r="H10">
-        <v>0.6929999999999999</v>
+        <v>0.614</v>
       </c>
       <c r="I10">
-        <v>0.643</v>
+        <v>0.605</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -826,28 +826,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.994</v>
+        <v>0.988</v>
       </c>
       <c r="C2">
-        <v>0.992</v>
+        <v>0.978</v>
       </c>
       <c r="D2">
-        <v>0.988</v>
+        <v>0.956</v>
       </c>
       <c r="E2">
-        <v>0.978</v>
+        <v>0.92</v>
       </c>
       <c r="F2">
-        <v>0.991</v>
+        <v>0.98</v>
       </c>
       <c r="G2">
-        <v>0.987</v>
+        <v>0.965</v>
       </c>
       <c r="H2">
-        <v>0.98</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="I2">
-        <v>0.965</v>
+        <v>0.885</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -858,28 +858,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.994</v>
+        <v>0.985</v>
       </c>
       <c r="C3">
-        <v>0.991</v>
+        <v>0.971</v>
       </c>
       <c r="D3">
-        <v>0.985</v>
+        <v>0.946</v>
       </c>
       <c r="E3">
-        <v>0.971</v>
+        <v>0.91</v>
       </c>
       <c r="F3">
-        <v>0.991</v>
+        <v>0.977</v>
       </c>
       <c r="G3">
-        <v>0.986</v>
+        <v>0.957</v>
       </c>
       <c r="H3">
-        <v>0.977</v>
+        <v>0.922</v>
       </c>
       <c r="I3">
-        <v>0.957</v>
+        <v>0.872</v>
       </c>
       <c r="J3">
         <v>103</v>
@@ -890,28 +890,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.989</v>
+        <v>0.981</v>
       </c>
       <c r="C4">
-        <v>0.986</v>
+        <v>0.973</v>
       </c>
       <c r="D4">
-        <v>0.981</v>
+        <v>0.96</v>
       </c>
       <c r="E4">
-        <v>0.973</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="F4">
-        <v>0.985</v>
+        <v>0.971</v>
       </c>
       <c r="G4">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
       <c r="H4">
-        <v>0.971</v>
+        <v>0.931</v>
       </c>
       <c r="I4">
-        <v>0.957</v>
+        <v>0.896</v>
       </c>
       <c r="J4">
         <v>140</v>
@@ -922,28 +922,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.996</v>
+        <v>0.984</v>
       </c>
       <c r="C5">
-        <v>0.992</v>
+        <v>0.975</v>
       </c>
       <c r="D5">
-        <v>0.984</v>
+        <v>0.962</v>
       </c>
       <c r="E5">
+        <v>0.945</v>
+      </c>
+      <c r="F5">
         <v>0.975</v>
       </c>
-      <c r="F5">
-        <v>0.993</v>
-      </c>
       <c r="G5">
-        <v>0.987</v>
+        <v>0.96</v>
       </c>
       <c r="H5">
-        <v>0.975</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="I5">
-        <v>0.96</v>
+        <v>0.904</v>
       </c>
       <c r="J5">
         <v>108</v>
@@ -954,28 +954,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="C6">
-        <v>0.996</v>
+        <v>0.985</v>
       </c>
       <c r="D6">
-        <v>0.991</v>
+        <v>0.976</v>
       </c>
       <c r="E6">
-        <v>0.985</v>
+        <v>0.962</v>
       </c>
       <c r="F6">
-        <v>0.996</v>
+        <v>0.984</v>
       </c>
       <c r="G6">
-        <v>0.992</v>
+        <v>0.973</v>
       </c>
       <c r="H6">
-        <v>0.984</v>
+        <v>0.956</v>
       </c>
       <c r="I6">
-        <v>0.973</v>
+        <v>0.928</v>
       </c>
       <c r="J6">
         <v>122</v>
@@ -986,28 +986,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.998</v>
+        <v>0.994</v>
       </c>
       <c r="C7">
-        <v>0.997</v>
+        <v>0.99</v>
       </c>
       <c r="D7">
-        <v>0.994</v>
+        <v>0.982</v>
       </c>
       <c r="E7">
-        <v>0.99</v>
+        <v>0.968</v>
       </c>
       <c r="F7">
-        <v>0.995</v>
+        <v>0.987</v>
       </c>
       <c r="G7">
-        <v>0.992</v>
+        <v>0.978</v>
       </c>
       <c r="H7">
-        <v>0.987</v>
+        <v>0.962</v>
       </c>
       <c r="I7">
-        <v>0.978</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="J7">
         <v>163</v>
@@ -1021,25 +1021,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="E8">
-        <v>0.998</v>
+        <v>0.983</v>
       </c>
       <c r="F8">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G8">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H8">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="I8">
-        <v>0.986</v>
+        <v>0.949</v>
       </c>
       <c r="J8">
         <v>247</v>
@@ -1056,22 +1056,22 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F9">
-        <v>0.998</v>
+        <v>0.994</v>
       </c>
       <c r="G9">
-        <v>0.997</v>
+        <v>0.989</v>
       </c>
       <c r="H9">
-        <v>0.994</v>
+        <v>0.978</v>
       </c>
       <c r="I9">
-        <v>0.989</v>
+        <v>0.958</v>
       </c>
       <c r="J9">
         <v>210</v>
@@ -1085,25 +1085,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E10">
-        <v>0.999</v>
+        <v>0.99</v>
       </c>
       <c r="F10">
-        <v>0.998</v>
+        <v>0.996</v>
       </c>
       <c r="G10">
-        <v>0.998</v>
+        <v>0.991</v>
       </c>
       <c r="H10">
-        <v>0.996</v>
+        <v>0.98</v>
       </c>
       <c r="I10">
-        <v>0.991</v>
+        <v>0.962</v>
       </c>
       <c r="J10">
         <v>38</v>
@@ -1123,19 +1123,19 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="F11">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="G11">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="H11">
-        <v>0.997</v>
+        <v>0.984</v>
       </c>
       <c r="I11">
-        <v>0.992</v>
+        <v>0.971</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1191,28 +1191,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
       <c r="C2">
-        <v>0.997</v>
+        <v>0.989</v>
       </c>
       <c r="D2">
-        <v>0.994</v>
+        <v>0.974</v>
       </c>
       <c r="E2">
-        <v>0.989</v>
+        <v>0.95</v>
       </c>
       <c r="F2">
-        <v>0.995</v>
+        <v>0.985</v>
       </c>
       <c r="G2">
-        <v>0.992</v>
+        <v>0.974</v>
       </c>
       <c r="H2">
-        <v>0.985</v>
+        <v>0.949</v>
       </c>
       <c r="I2">
-        <v>0.974</v>
+        <v>0.909</v>
       </c>
       <c r="J2">
         <v>145</v>
@@ -1223,28 +1223,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.989</v>
+        <v>0.981</v>
       </c>
       <c r="C3">
-        <v>0.986</v>
+        <v>0.97</v>
       </c>
       <c r="D3">
-        <v>0.981</v>
+        <v>0.955</v>
       </c>
       <c r="E3">
-        <v>0.97</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="F3">
-        <v>0.986</v>
+        <v>0.971</v>
       </c>
       <c r="G3">
-        <v>0.98</v>
+        <v>0.954</v>
       </c>
       <c r="H3">
-        <v>0.971</v>
+        <v>0.926</v>
       </c>
       <c r="I3">
-        <v>0.954</v>
+        <v>0.888</v>
       </c>
       <c r="J3">
         <v>238</v>
@@ -1255,28 +1255,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.994</v>
+        <v>0.981</v>
       </c>
       <c r="C4">
-        <v>0.989</v>
+        <v>0.971</v>
       </c>
       <c r="D4">
-        <v>0.981</v>
+        <v>0.953</v>
       </c>
       <c r="E4">
-        <v>0.971</v>
+        <v>0.927</v>
       </c>
       <c r="F4">
-        <v>0.99</v>
+        <v>0.973</v>
       </c>
       <c r="G4">
-        <v>0.983</v>
+        <v>0.958</v>
       </c>
       <c r="H4">
-        <v>0.973</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="I4">
-        <v>0.958</v>
+        <v>0.894</v>
       </c>
       <c r="J4">
         <v>134</v>
@@ -1287,28 +1287,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C5">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="D5">
-        <v>0.995</v>
+        <v>0.98</v>
       </c>
       <c r="E5">
-        <v>0.989</v>
+        <v>0.965</v>
       </c>
       <c r="F5">
-        <v>0.997</v>
+        <v>0.988</v>
       </c>
       <c r="G5">
-        <v>0.994</v>
+        <v>0.977</v>
       </c>
       <c r="H5">
-        <v>0.988</v>
+        <v>0.96</v>
       </c>
       <c r="I5">
-        <v>0.977</v>
+        <v>0.93</v>
       </c>
       <c r="J5">
         <v>188</v>
@@ -1322,25 +1322,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="E6">
-        <v>0.998</v>
+        <v>0.98</v>
       </c>
       <c r="F6">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G6">
-        <v>0.995</v>
+        <v>0.985</v>
       </c>
       <c r="H6">
-        <v>0.993</v>
+        <v>0.972</v>
       </c>
       <c r="I6">
-        <v>0.985</v>
+        <v>0.945</v>
       </c>
       <c r="J6">
         <v>191</v>
@@ -1354,25 +1354,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="E7">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
       <c r="F7">
-        <v>0.998</v>
+        <v>0.994</v>
       </c>
       <c r="G7">
-        <v>0.997</v>
+        <v>0.987</v>
       </c>
       <c r="H7">
-        <v>0.994</v>
+        <v>0.974</v>
       </c>
       <c r="I7">
-        <v>0.987</v>
+        <v>0.951</v>
       </c>
       <c r="J7">
         <v>187</v>
@@ -1389,22 +1389,22 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="F8">
-        <v>0.999</v>
+        <v>0.996</v>
       </c>
       <c r="G8">
-        <v>0.998</v>
+        <v>0.991</v>
       </c>
       <c r="H8">
-        <v>0.996</v>
+        <v>0.981</v>
       </c>
       <c r="I8">
-        <v>0.991</v>
+        <v>0.966</v>
       </c>
       <c r="J8">
         <v>113</v>
@@ -1418,25 +1418,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E9">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="F9">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="G9">
-        <v>0.998</v>
+        <v>0.991</v>
       </c>
       <c r="H9">
-        <v>0.997</v>
+        <v>0.98</v>
       </c>
       <c r="I9">
-        <v>0.991</v>
+        <v>0.963</v>
       </c>
       <c r="J9">
         <v>35</v>
@@ -1456,19 +1456,19 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="F10">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="G10">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="H10">
-        <v>0.997</v>
+        <v>0.984</v>
       </c>
       <c r="I10">
-        <v>0.992</v>
+        <v>0.971</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1532,28 +1532,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.992</v>
+        <v>0.986</v>
       </c>
       <c r="C2">
-        <v>0.989</v>
+        <v>0.98</v>
       </c>
       <c r="D2">
-        <v>0.986</v>
+        <v>0.969</v>
       </c>
       <c r="E2">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F2">
-        <v>0.988</v>
+        <v>0.976</v>
       </c>
       <c r="G2">
-        <v>0.983</v>
+        <v>0.964</v>
       </c>
       <c r="H2">
-        <v>0.976</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="I2">
-        <v>0.964</v>
+        <v>0.906</v>
       </c>
       <c r="J2">
         <v>284</v>
@@ -1564,28 +1564,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.994</v>
+        <v>0.982</v>
       </c>
       <c r="C3">
-        <v>0.99</v>
+        <v>0.969</v>
       </c>
       <c r="D3">
-        <v>0.982</v>
+        <v>0.947</v>
       </c>
       <c r="E3">
-        <v>0.969</v>
+        <v>0.917</v>
       </c>
       <c r="F3">
-        <v>0.99</v>
+        <v>0.974</v>
       </c>
       <c r="G3">
-        <v>0.985</v>
+        <v>0.955</v>
       </c>
       <c r="H3">
-        <v>0.974</v>
+        <v>0.925</v>
       </c>
       <c r="I3">
-        <v>0.955</v>
+        <v>0.882</v>
       </c>
       <c r="J3">
         <v>223</v>
@@ -1596,28 +1596,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C4">
-        <v>0.999</v>
+        <v>0.993</v>
       </c>
       <c r="D4">
-        <v>0.997</v>
+        <v>0.986</v>
       </c>
       <c r="E4">
-        <v>0.993</v>
+        <v>0.97</v>
       </c>
       <c r="F4">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="G4">
-        <v>0.994</v>
+        <v>0.98</v>
       </c>
       <c r="H4">
-        <v>0.989</v>
+        <v>0.965</v>
       </c>
       <c r="I4">
-        <v>0.98</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="J4">
         <v>231</v>
@@ -1628,28 +1628,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D5">
-        <v>0.999</v>
+        <v>0.99</v>
       </c>
       <c r="E5">
-        <v>0.996</v>
+        <v>0.977</v>
       </c>
       <c r="F5">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G5">
-        <v>0.996</v>
+        <v>0.984</v>
       </c>
       <c r="H5">
-        <v>0.992</v>
+        <v>0.969</v>
       </c>
       <c r="I5">
-        <v>0.984</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="J5">
         <v>193</v>
@@ -1660,28 +1660,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D6">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="E6">
-        <v>0.996</v>
+        <v>0.981</v>
       </c>
       <c r="F6">
-        <v>0.998</v>
+        <v>0.995</v>
       </c>
       <c r="G6">
-        <v>0.997</v>
+        <v>0.986</v>
       </c>
       <c r="H6">
-        <v>0.995</v>
+        <v>0.973</v>
       </c>
       <c r="I6">
-        <v>0.986</v>
+        <v>0.951</v>
       </c>
       <c r="J6">
         <v>132</v>
@@ -1695,25 +1695,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E7">
-        <v>0.998</v>
+        <v>0.989</v>
       </c>
       <c r="F7">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="G7">
-        <v>0.998</v>
+        <v>0.99</v>
       </c>
       <c r="H7">
-        <v>0.997</v>
+        <v>0.979</v>
       </c>
       <c r="I7">
-        <v>0.99</v>
+        <v>0.963</v>
       </c>
       <c r="J7">
         <v>122</v>
@@ -1727,25 +1727,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E8">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="F8">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="G8">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="H8">
-        <v>0.997</v>
+        <v>0.981</v>
       </c>
       <c r="I8">
-        <v>0.991</v>
+        <v>0.965</v>
       </c>
       <c r="J8">
         <v>45</v>
@@ -1765,19 +1765,19 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="F9">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="G9">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="H9">
-        <v>0.997</v>
+        <v>0.984</v>
       </c>
       <c r="I9">
-        <v>0.992</v>
+        <v>0.969</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1852,25 +1852,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E2">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="F2">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G2">
-        <v>0.995</v>
+        <v>0.986</v>
       </c>
       <c r="H2">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="I2">
-        <v>0.986</v>
+        <v>0.95</v>
       </c>
       <c r="J2">
         <v>195</v>
@@ -1884,25 +1884,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E3">
-        <v>0.999</v>
+        <v>0.986</v>
       </c>
       <c r="F3">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G3">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H3">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="I3">
-        <v>0.986</v>
+        <v>0.949</v>
       </c>
       <c r="J3">
         <v>399</v>
@@ -1913,28 +1913,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D4">
-        <v>0.999</v>
+        <v>0.99</v>
       </c>
       <c r="E4">
-        <v>0.996</v>
+        <v>0.977</v>
       </c>
       <c r="F4">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G4">
-        <v>0.996</v>
+        <v>0.983</v>
       </c>
       <c r="H4">
-        <v>0.992</v>
+        <v>0.967</v>
       </c>
       <c r="I4">
-        <v>0.983</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="J4">
         <v>206</v>
@@ -1945,28 +1945,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="D5">
-        <v>0.998</v>
+        <v>0.983</v>
       </c>
       <c r="E5">
-        <v>0.993</v>
+        <v>0.965</v>
       </c>
       <c r="F5">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="G5">
-        <v>0.995</v>
+        <v>0.981</v>
       </c>
       <c r="H5">
-        <v>0.991</v>
+        <v>0.961</v>
       </c>
       <c r="I5">
-        <v>0.981</v>
+        <v>0.929</v>
       </c>
       <c r="J5">
         <v>110</v>
@@ -1977,28 +1977,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="D6">
-        <v>0.996</v>
+        <v>0.973</v>
       </c>
       <c r="E6">
-        <v>0.988</v>
+        <v>0.949</v>
       </c>
       <c r="F6">
-        <v>0.997</v>
+        <v>0.989</v>
       </c>
       <c r="G6">
-        <v>0.996</v>
+        <v>0.976</v>
       </c>
       <c r="H6">
-        <v>0.989</v>
+        <v>0.953</v>
       </c>
       <c r="I6">
-        <v>0.976</v>
+        <v>0.916</v>
       </c>
       <c r="J6">
         <v>95</v>
@@ -2009,28 +2009,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="D7">
-        <v>0.996</v>
+        <v>0.969</v>
       </c>
       <c r="E7">
-        <v>0.987</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="F7">
-        <v>0.997</v>
+        <v>0.988</v>
       </c>
       <c r="G7">
-        <v>0.994</v>
+        <v>0.974</v>
       </c>
       <c r="H7">
-        <v>0.988</v>
+        <v>0.946</v>
       </c>
       <c r="I7">
-        <v>0.974</v>
+        <v>0.904</v>
       </c>
       <c r="J7">
         <v>86</v>
@@ -2041,28 +2041,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="C8">
-        <v>0.996</v>
+        <v>0.97</v>
       </c>
       <c r="D8">
-        <v>0.988</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="E8">
-        <v>0.97</v>
+        <v>0.904</v>
       </c>
       <c r="F8">
-        <v>0.995</v>
+        <v>0.98</v>
       </c>
       <c r="G8">
-        <v>0.991</v>
+        <v>0.958</v>
       </c>
       <c r="H8">
-        <v>0.98</v>
+        <v>0.921</v>
       </c>
       <c r="I8">
-        <v>0.958</v>
+        <v>0.872</v>
       </c>
       <c r="J8">
         <v>53</v>
@@ -2073,28 +2073,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.99</v>
+        <v>0.961</v>
       </c>
       <c r="C9">
-        <v>0.98</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D9">
-        <v>0.961</v>
+        <v>0.896</v>
       </c>
       <c r="E9">
-        <v>0.9340000000000001</v>
+        <v>0.853</v>
       </c>
       <c r="F9">
-        <v>0.987</v>
+        <v>0.953</v>
       </c>
       <c r="G9">
-        <v>0.975</v>
+        <v>0.923</v>
       </c>
       <c r="H9">
-        <v>0.953</v>
+        <v>0.878</v>
       </c>
       <c r="I9">
-        <v>0.923</v>
+        <v>0.825</v>
       </c>
       <c r="J9">
         <v>48</v>
@@ -2105,28 +2105,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.926</v>
+        <v>0.875</v>
       </c>
       <c r="C10">
-        <v>0.899</v>
+        <v>0.847</v>
       </c>
       <c r="D10">
-        <v>0.875</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="E10">
-        <v>0.847</v>
+        <v>0.785</v>
       </c>
       <c r="F10">
-        <v>0.924</v>
+        <v>0.868</v>
       </c>
       <c r="G10">
-        <v>0.895</v>
+        <v>0.837</v>
       </c>
       <c r="H10">
-        <v>0.868</v>
+        <v>0.798</v>
       </c>
       <c r="I10">
-        <v>0.837</v>
+        <v>0.76</v>
       </c>
       <c r="J10">
         <v>34</v>
@@ -2137,28 +2137,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.916</v>
+        <v>0.844</v>
       </c>
       <c r="C11">
-        <v>0.885</v>
+        <v>0.804</v>
       </c>
       <c r="D11">
-        <v>0.844</v>
+        <v>0.761</v>
       </c>
       <c r="E11">
-        <v>0.804</v>
+        <v>0.72</v>
       </c>
       <c r="F11">
-        <v>0.913</v>
+        <v>0.837</v>
       </c>
       <c r="G11">
-        <v>0.881</v>
+        <v>0.794</v>
       </c>
       <c r="H11">
-        <v>0.837</v>
+        <v>0.746</v>
       </c>
       <c r="I11">
-        <v>0.794</v>
+        <v>0.699</v>
       </c>
       <c r="J11">
         <v>7</v>
@@ -2217,25 +2217,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="E2">
-        <v>0.998</v>
+        <v>0.982</v>
       </c>
       <c r="F2">
-        <v>0.998</v>
+        <v>0.994</v>
       </c>
       <c r="G2">
-        <v>0.997</v>
+        <v>0.987</v>
       </c>
       <c r="H2">
-        <v>0.994</v>
+        <v>0.974</v>
       </c>
       <c r="I2">
-        <v>0.987</v>
+        <v>0.951</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -2252,22 +2252,22 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="F3">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G3">
-        <v>0.995</v>
+        <v>0.987</v>
       </c>
       <c r="H3">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="I3">
-        <v>0.987</v>
+        <v>0.952</v>
       </c>
       <c r="J3">
         <v>50</v>
@@ -2281,25 +2281,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E4">
-        <v>0.999</v>
+        <v>0.986</v>
       </c>
       <c r="F4">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G4">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H4">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="I4">
-        <v>0.986</v>
+        <v>0.949</v>
       </c>
       <c r="J4">
         <v>225</v>
@@ -2313,25 +2313,25 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E5">
-        <v>0.998</v>
+        <v>0.985</v>
       </c>
       <c r="F5">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G5">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H5">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="I5">
-        <v>0.986</v>
+        <v>0.949</v>
       </c>
       <c r="J5">
         <v>280</v>
@@ -2342,28 +2342,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D6">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="E6">
-        <v>0.996</v>
+        <v>0.979</v>
       </c>
       <c r="F6">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G6">
-        <v>0.996</v>
+        <v>0.984</v>
       </c>
       <c r="H6">
-        <v>0.992</v>
+        <v>0.969</v>
       </c>
       <c r="I6">
-        <v>0.984</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="J6">
         <v>181</v>
@@ -2374,28 +2374,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D7">
-        <v>0.998</v>
+        <v>0.987</v>
       </c>
       <c r="E7">
-        <v>0.995</v>
+        <v>0.972</v>
       </c>
       <c r="F7">
-        <v>0.997</v>
+        <v>0.99</v>
       </c>
       <c r="G7">
-        <v>0.995</v>
+        <v>0.981</v>
       </c>
       <c r="H7">
-        <v>0.99</v>
+        <v>0.962</v>
       </c>
       <c r="I7">
-        <v>0.981</v>
+        <v>0.931</v>
       </c>
       <c r="J7">
         <v>130</v>
@@ -2406,28 +2406,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
       <c r="C8">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="D8">
-        <v>0.995</v>
+        <v>0.975</v>
       </c>
       <c r="E8">
+        <v>0.956</v>
+      </c>
+      <c r="F8">
         <v>0.988</v>
       </c>
-      <c r="F8">
-        <v>0.997</v>
-      </c>
       <c r="G8">
-        <v>0.994</v>
+        <v>0.976</v>
       </c>
       <c r="H8">
-        <v>0.988</v>
+        <v>0.954</v>
       </c>
       <c r="I8">
-        <v>0.976</v>
+        <v>0.921</v>
       </c>
       <c r="J8">
         <v>114</v>
@@ -2438,28 +2438,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
       <c r="C9">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="D9">
-        <v>0.994</v>
+        <v>0.966</v>
       </c>
       <c r="E9">
-        <v>0.984</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="F9">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="G9">
-        <v>0.993</v>
+        <v>0.971</v>
       </c>
       <c r="H9">
-        <v>0.986</v>
+        <v>0.944</v>
       </c>
       <c r="I9">
-        <v>0.971</v>
+        <v>0.902</v>
       </c>
       <c r="J9">
         <v>118</v>
@@ -2470,28 +2470,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="C10">
-        <v>0.966</v>
+        <v>0.926</v>
       </c>
       <c r="D10">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="E10">
-        <v>0.926</v>
+        <v>0.85</v>
       </c>
       <c r="F10">
-        <v>0.973</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="G10">
-        <v>0.961</v>
+        <v>0.915</v>
       </c>
       <c r="H10">
-        <v>0.9429999999999999</v>
+        <v>0.872</v>
       </c>
       <c r="I10">
-        <v>0.915</v>
+        <v>0.821</v>
       </c>
       <c r="J10">
         <v>98</v>
@@ -2502,28 +2502,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.966</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="C11">
-        <v>0.951</v>
+        <v>0.909</v>
       </c>
       <c r="D11">
-        <v>0.9340000000000001</v>
+        <v>0.876</v>
       </c>
       <c r="E11">
-        <v>0.909</v>
+        <v>0.842</v>
       </c>
       <c r="F11">
-        <v>0.963</v>
+        <v>0.926</v>
       </c>
       <c r="G11">
-        <v>0.946</v>
+        <v>0.896</v>
       </c>
       <c r="H11">
-        <v>0.926</v>
+        <v>0.857</v>
       </c>
       <c r="I11">
-        <v>0.896</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J11">
         <v>35</v>
@@ -2598,25 +2598,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E4">
-        <v>0.998</v>
+        <v>0.988</v>
       </c>
       <c r="F4">
-        <v>0.998</v>
+        <v>0.995</v>
       </c>
       <c r="G4">
-        <v>0.997</v>
+        <v>0.988</v>
       </c>
       <c r="H4">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="I4">
-        <v>0.988</v>
+        <v>0.958</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -2630,25 +2630,25 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E5">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="F5">
-        <v>0.998</v>
+        <v>0.995</v>
       </c>
       <c r="G5">
-        <v>0.997</v>
+        <v>0.989</v>
       </c>
       <c r="H5">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="I5">
-        <v>0.989</v>
+        <v>0.958</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -2665,22 +2665,22 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F6">
-        <v>0.997</v>
+        <v>0.994</v>
       </c>
       <c r="G6">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="H6">
-        <v>0.994</v>
+        <v>0.978</v>
       </c>
       <c r="I6">
-        <v>0.988</v>
+        <v>0.957</v>
       </c>
       <c r="J6">
         <v>143</v>
@@ -2694,25 +2694,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E7">
-        <v>0.999</v>
+        <v>0.986</v>
       </c>
       <c r="F7">
-        <v>0.997</v>
+        <v>0.994</v>
       </c>
       <c r="G7">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="H7">
-        <v>0.994</v>
+        <v>0.976</v>
       </c>
       <c r="I7">
-        <v>0.988</v>
+        <v>0.953</v>
       </c>
       <c r="J7">
         <v>234</v>
@@ -2723,28 +2723,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.999</v>
+        <v>0.996</v>
       </c>
       <c r="C8">
-        <v>0.998</v>
+        <v>0.992</v>
       </c>
       <c r="D8">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="E8">
-        <v>0.992</v>
+        <v>0.973</v>
       </c>
       <c r="F8">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="G8">
-        <v>0.993</v>
+        <v>0.981</v>
       </c>
       <c r="H8">
-        <v>0.989</v>
+        <v>0.966</v>
       </c>
       <c r="I8">
-        <v>0.981</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="J8">
         <v>222</v>
@@ -2755,28 +2755,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="C9">
-        <v>0.993</v>
+        <v>0.981</v>
       </c>
       <c r="D9">
-        <v>0.988</v>
+        <v>0.97</v>
       </c>
       <c r="E9">
+        <v>0.954</v>
+      </c>
+      <c r="F9">
         <v>0.981</v>
       </c>
-      <c r="F9">
-        <v>0.993</v>
-      </c>
       <c r="G9">
-        <v>0.989</v>
+        <v>0.969</v>
       </c>
       <c r="H9">
-        <v>0.981</v>
+        <v>0.951</v>
       </c>
       <c r="I9">
-        <v>0.969</v>
+        <v>0.921</v>
       </c>
       <c r="J9">
         <v>166</v>
@@ -2787,28 +2787,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.995</v>
+        <v>0.988</v>
       </c>
       <c r="C10">
-        <v>0.993</v>
+        <v>0.977</v>
       </c>
       <c r="D10">
-        <v>0.988</v>
+        <v>0.958</v>
       </c>
       <c r="E10">
-        <v>0.977</v>
+        <v>0.93</v>
       </c>
       <c r="F10">
-        <v>0.992</v>
+        <v>0.98</v>
       </c>
       <c r="G10">
-        <v>0.988</v>
+        <v>0.964</v>
       </c>
       <c r="H10">
-        <v>0.98</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="I10">
-        <v>0.964</v>
+        <v>0.894</v>
       </c>
       <c r="J10">
         <v>309</v>
@@ -2819,28 +2819,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.991</v>
+        <v>0.982</v>
       </c>
       <c r="C11">
-        <v>0.988</v>
+        <v>0.973</v>
       </c>
       <c r="D11">
-        <v>0.982</v>
+        <v>0.959</v>
       </c>
       <c r="E11">
-        <v>0.973</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F11">
-        <v>0.988</v>
+        <v>0.972</v>
       </c>
       <c r="G11">
-        <v>0.982</v>
+        <v>0.956</v>
       </c>
       <c r="H11">
-        <v>0.972</v>
+        <v>0.928</v>
       </c>
       <c r="I11">
-        <v>0.956</v>
+        <v>0.892</v>
       </c>
       <c r="J11">
         <v>133</v>
@@ -2929,19 +2929,19 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="F5">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="G5">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="H5">
-        <v>0.997</v>
+        <v>0.984</v>
       </c>
       <c r="I5">
-        <v>0.992</v>
+        <v>0.971</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -2955,25 +2955,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E6">
-        <v>0.998</v>
+        <v>0.987</v>
       </c>
       <c r="F6">
-        <v>0.998</v>
+        <v>0.996</v>
       </c>
       <c r="G6">
-        <v>0.998</v>
+        <v>0.989</v>
       </c>
       <c r="H6">
-        <v>0.996</v>
+        <v>0.979</v>
       </c>
       <c r="I6">
-        <v>0.989</v>
+        <v>0.959</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -2990,22 +2990,22 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="F7">
-        <v>0.998</v>
+        <v>0.996</v>
       </c>
       <c r="G7">
-        <v>0.998</v>
+        <v>0.99</v>
       </c>
       <c r="H7">
-        <v>0.996</v>
+        <v>0.979</v>
       </c>
       <c r="I7">
-        <v>0.99</v>
+        <v>0.962</v>
       </c>
       <c r="J7">
         <v>51</v>
@@ -3019,25 +3019,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E8">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="F8">
-        <v>0.998</v>
+        <v>0.994</v>
       </c>
       <c r="G8">
-        <v>0.997</v>
+        <v>0.989</v>
       </c>
       <c r="H8">
-        <v>0.994</v>
+        <v>0.978</v>
       </c>
       <c r="I8">
-        <v>0.989</v>
+        <v>0.957</v>
       </c>
       <c r="J8">
         <v>211</v>
@@ -3048,28 +3048,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C9">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
       <c r="D9">
-        <v>0.998</v>
+        <v>0.99</v>
       </c>
       <c r="E9">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="F9">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="G9">
-        <v>0.995</v>
+        <v>0.983</v>
       </c>
       <c r="H9">
-        <v>0.991</v>
+        <v>0.97</v>
       </c>
       <c r="I9">
-        <v>0.983</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="J9">
         <v>323</v>
@@ -3080,28 +3080,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.998</v>
+        <v>0.993</v>
       </c>
       <c r="C10">
-        <v>0.996</v>
+        <v>0.984</v>
       </c>
       <c r="D10">
-        <v>0.993</v>
+        <v>0.969</v>
       </c>
       <c r="E10">
-        <v>0.984</v>
+        <v>0.944</v>
       </c>
       <c r="F10">
-        <v>0.995</v>
+        <v>0.985</v>
       </c>
       <c r="G10">
-        <v>0.992</v>
+        <v>0.972</v>
       </c>
       <c r="H10">
-        <v>0.985</v>
+        <v>0.949</v>
       </c>
       <c r="I10">
-        <v>0.972</v>
+        <v>0.91</v>
       </c>
       <c r="J10">
         <v>387</v>
@@ -3112,28 +3112,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.989</v>
+        <v>0.978</v>
       </c>
       <c r="C11">
-        <v>0.985</v>
+        <v>0.968</v>
       </c>
       <c r="D11">
-        <v>0.978</v>
+        <v>0.955</v>
       </c>
       <c r="E11">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="F11">
         <v>0.968</v>
       </c>
-      <c r="F11">
-        <v>0.986</v>
-      </c>
       <c r="G11">
-        <v>0.979</v>
+        <v>0.952</v>
       </c>
       <c r="H11">
-        <v>0.968</v>
+        <v>0.925</v>
       </c>
       <c r="I11">
-        <v>0.952</v>
+        <v>0.892</v>
       </c>
       <c r="J11">
         <v>253</v>
@@ -3230,19 +3230,19 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="F6">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="G6">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="H6">
-        <v>0.997</v>
+        <v>0.984</v>
       </c>
       <c r="I6">
-        <v>0.992</v>
+        <v>0.971</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -3256,25 +3256,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E7">
-        <v>0.998</v>
+        <v>0.987</v>
       </c>
       <c r="F7">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="G7">
-        <v>0.999</v>
+        <v>0.99</v>
       </c>
       <c r="H7">
-        <v>0.997</v>
+        <v>0.981</v>
       </c>
       <c r="I7">
-        <v>0.99</v>
+        <v>0.961</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -3288,25 +3288,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E8">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="F8">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="G8">
-        <v>0.998</v>
+        <v>0.991</v>
       </c>
       <c r="H8">
-        <v>0.997</v>
+        <v>0.981</v>
       </c>
       <c r="I8">
-        <v>0.991</v>
+        <v>0.964</v>
       </c>
       <c r="J8">
         <v>47</v>
@@ -3320,25 +3320,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E9">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="F9">
-        <v>0.998</v>
+        <v>0.994</v>
       </c>
       <c r="G9">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="H9">
-        <v>0.994</v>
+        <v>0.977</v>
       </c>
       <c r="I9">
-        <v>0.988</v>
+        <v>0.955</v>
       </c>
       <c r="J9">
         <v>269</v>
@@ -3349,28 +3349,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C10">
-        <v>0.999</v>
+        <v>0.993</v>
       </c>
       <c r="D10">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
       <c r="E10">
-        <v>0.993</v>
+        <v>0.965</v>
       </c>
       <c r="F10">
-        <v>0.997</v>
+        <v>0.99</v>
       </c>
       <c r="G10">
-        <v>0.995</v>
+        <v>0.98</v>
       </c>
       <c r="H10">
-        <v>0.99</v>
+        <v>0.963</v>
       </c>
       <c r="I10">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="J10">
         <v>524</v>
@@ -3381,28 +3381,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.991</v>
+        <v>0.98</v>
       </c>
       <c r="C11">
-        <v>0.987</v>
+        <v>0.97</v>
       </c>
       <c r="D11">
-        <v>0.98</v>
+        <v>0.954</v>
       </c>
       <c r="E11">
-        <v>0.97</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="F11">
-        <v>0.988</v>
+        <v>0.971</v>
       </c>
       <c r="G11">
-        <v>0.982</v>
+        <v>0.955</v>
       </c>
       <c r="H11">
-        <v>0.971</v>
+        <v>0.928</v>
       </c>
       <c r="I11">
-        <v>0.955</v>
+        <v>0.893</v>
       </c>
       <c r="J11">
         <v>388</v>
@@ -3458,28 +3458,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.676</v>
+        <v>0.572</v>
       </c>
       <c r="C2">
-        <v>0.608</v>
+        <v>0.538</v>
       </c>
       <c r="D2">
+        <v>0.524</v>
+      </c>
+      <c r="E2">
+        <v>0.544</v>
+      </c>
+      <c r="F2">
         <v>0.572</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.538</v>
       </c>
-      <c r="F2">
-        <v>0.675</v>
-      </c>
-      <c r="G2">
-        <v>0.607</v>
-      </c>
       <c r="H2">
-        <v>0.572</v>
+        <v>0.524</v>
       </c>
       <c r="I2">
-        <v>0.538</v>
+        <v>0.54</v>
       </c>
       <c r="J2">
         <v>9</v>
@@ -3490,28 +3490,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.785</v>
+        <v>0.668</v>
       </c>
       <c r="C3">
-        <v>0.718</v>
+        <v>0.652</v>
       </c>
       <c r="D3">
-        <v>0.668</v>
+        <v>0.602</v>
       </c>
       <c r="E3">
-        <v>0.652</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="F3">
-        <v>0.783</v>
+        <v>0.661</v>
       </c>
       <c r="G3">
-        <v>0.713</v>
+        <v>0.644</v>
       </c>
       <c r="H3">
-        <v>0.661</v>
+        <v>0.593</v>
       </c>
       <c r="I3">
-        <v>0.644</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -3522,28 +3522,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="C4">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
       <c r="D4">
-        <v>0.87</v>
+        <v>0.71</v>
       </c>
       <c r="E4">
-        <v>0.79</v>
+        <v>0.63</v>
       </c>
       <c r="F4">
-        <v>0.996</v>
+        <v>0.865</v>
       </c>
       <c r="G4">
-        <v>0.955</v>
+        <v>0.783</v>
       </c>
       <c r="H4">
-        <v>0.865</v>
+        <v>0.701</v>
       </c>
       <c r="I4">
-        <v>0.783</v>
+        <v>0.618</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3554,28 +3554,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.989</v>
+        <v>0.879</v>
       </c>
       <c r="C5">
-        <v>0.9389999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D5">
-        <v>0.879</v>
+        <v>0.742</v>
       </c>
       <c r="E5">
-        <v>0.8149999999999999</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="F5">
-        <v>0.986</v>
+        <v>0.873</v>
       </c>
       <c r="G5">
-        <v>0.9350000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="H5">
-        <v>0.873</v>
+        <v>0.73</v>
       </c>
       <c r="I5">
-        <v>0.806</v>
+        <v>0.667</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -3586,28 +3586,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.984</v>
+        <v>0.901</v>
       </c>
       <c r="C6">
-        <v>0.951</v>
+        <v>0.858</v>
       </c>
       <c r="D6">
-        <v>0.901</v>
+        <v>0.803</v>
       </c>
       <c r="E6">
-        <v>0.858</v>
+        <v>0.767</v>
       </c>
       <c r="F6">
-        <v>0.981</v>
+        <v>0.892</v>
       </c>
       <c r="G6">
-        <v>0.946</v>
+        <v>0.846</v>
       </c>
       <c r="H6">
-        <v>0.892</v>
+        <v>0.787</v>
       </c>
       <c r="I6">
-        <v>0.846</v>
+        <v>0.744</v>
       </c>
       <c r="J6">
         <v>7</v>
@@ -3618,28 +3618,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.986</v>
+        <v>0.93</v>
       </c>
       <c r="C7">
-        <v>0.963</v>
+        <v>0.897</v>
       </c>
       <c r="D7">
-        <v>0.93</v>
+        <v>0.867</v>
       </c>
       <c r="E7">
-        <v>0.897</v>
+        <v>0.838</v>
       </c>
       <c r="F7">
-        <v>0.982</v>
+        <v>0.921</v>
       </c>
       <c r="G7">
-        <v>0.958</v>
+        <v>0.884</v>
       </c>
       <c r="H7">
-        <v>0.921</v>
+        <v>0.848</v>
       </c>
       <c r="I7">
-        <v>0.884</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -3650,28 +3650,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.998</v>
+        <v>0.964</v>
       </c>
       <c r="C8">
-        <v>0.988</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="D8">
-        <v>0.964</v>
+        <v>0.897</v>
       </c>
       <c r="E8">
-        <v>0.9320000000000001</v>
+        <v>0.849</v>
       </c>
       <c r="F8">
-        <v>0.995</v>
+        <v>0.954</v>
       </c>
       <c r="G8">
-        <v>0.982</v>
+        <v>0.918</v>
       </c>
       <c r="H8">
-        <v>0.954</v>
+        <v>0.873</v>
       </c>
       <c r="I8">
-        <v>0.918</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="J8">
         <v>20</v>
@@ -3682,28 +3682,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.999</v>
+        <v>0.985</v>
       </c>
       <c r="C9">
-        <v>0.996</v>
+        <v>0.965</v>
       </c>
       <c r="D9">
-        <v>0.985</v>
+        <v>0.929</v>
       </c>
       <c r="E9">
-        <v>0.965</v>
+        <v>0.889</v>
       </c>
       <c r="F9">
-        <v>0.996</v>
+        <v>0.977</v>
       </c>
       <c r="G9">
-        <v>0.991</v>
+        <v>0.952</v>
       </c>
       <c r="H9">
-        <v>0.977</v>
+        <v>0.909</v>
       </c>
       <c r="I9">
-        <v>0.952</v>
+        <v>0.858</v>
       </c>
       <c r="J9">
         <v>33</v>
@@ -3714,28 +3714,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="C10">
-        <v>0.999</v>
+        <v>0.977</v>
       </c>
       <c r="D10">
-        <v>0.993</v>
+        <v>0.951</v>
       </c>
       <c r="E10">
-        <v>0.977</v>
+        <v>0.915</v>
       </c>
       <c r="F10">
-        <v>0.997</v>
+        <v>0.985</v>
       </c>
       <c r="G10">
-        <v>0.994</v>
+        <v>0.965</v>
       </c>
       <c r="H10">
-        <v>0.985</v>
+        <v>0.93</v>
       </c>
       <c r="I10">
-        <v>0.965</v>
+        <v>0.881</v>
       </c>
       <c r="J10">
         <v>77</v>
@@ -3746,28 +3746,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D11">
-        <v>0.999</v>
+        <v>0.99</v>
       </c>
       <c r="E11">
-        <v>0.996</v>
+        <v>0.976</v>
       </c>
       <c r="F11">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G11">
-        <v>0.996</v>
+        <v>0.984</v>
       </c>
       <c r="H11">
-        <v>0.992</v>
+        <v>0.968</v>
       </c>
       <c r="I11">
-        <v>0.984</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J11">
         <v>1073</v>
@@ -3823,28 +3823,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.784</v>
+        <v>0.656</v>
       </c>
       <c r="C2">
-        <v>0.709</v>
+        <v>0.61</v>
       </c>
       <c r="D2">
-        <v>0.656</v>
+        <v>0.573</v>
       </c>
       <c r="E2">
-        <v>0.61</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F2">
-        <v>0.782</v>
+        <v>0.653</v>
       </c>
       <c r="G2">
-        <v>0.707</v>
+        <v>0.608</v>
       </c>
       <c r="H2">
-        <v>0.653</v>
+        <v>0.571</v>
       </c>
       <c r="I2">
-        <v>0.608</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="J2">
         <v>10</v>
@@ -3855,28 +3855,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.841</v>
+        <v>0.746</v>
       </c>
       <c r="C3">
-        <v>0.796</v>
+        <v>0.7</v>
       </c>
       <c r="D3">
-        <v>0.746</v>
+        <v>0.643</v>
       </c>
       <c r="E3">
-        <v>0.7</v>
+        <v>0.614</v>
       </c>
       <c r="F3">
-        <v>0.839</v>
+        <v>0.742</v>
       </c>
       <c r="G3">
-        <v>0.793</v>
+        <v>0.694</v>
       </c>
       <c r="H3">
-        <v>0.742</v>
+        <v>0.635</v>
       </c>
       <c r="I3">
-        <v>0.694</v>
+        <v>0.604</v>
       </c>
       <c r="J3">
         <v>8</v>
@@ -3887,28 +3887,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.997</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="C4">
-        <v>0.978</v>
+        <v>0.887</v>
       </c>
       <c r="D4">
-        <v>0.9360000000000001</v>
+        <v>0.839</v>
       </c>
       <c r="E4">
-        <v>0.887</v>
+        <v>0.794</v>
       </c>
       <c r="F4">
-        <v>0.993</v>
+        <v>0.928</v>
       </c>
       <c r="G4">
-        <v>0.973</v>
+        <v>0.876</v>
       </c>
       <c r="H4">
-        <v>0.928</v>
+        <v>0.822</v>
       </c>
       <c r="I4">
-        <v>0.876</v>
+        <v>0.769</v>
       </c>
       <c r="J4">
         <v>9</v>
@@ -3919,28 +3919,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.998</v>
+        <v>0.968</v>
       </c>
       <c r="C5">
-        <v>0.989</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="D5">
-        <v>0.968</v>
+        <v>0.889</v>
       </c>
       <c r="E5">
-        <v>0.9330000000000001</v>
+        <v>0.836</v>
       </c>
       <c r="F5">
-        <v>0.995</v>
+        <v>0.96</v>
       </c>
       <c r="G5">
-        <v>0.984</v>
+        <v>0.921</v>
       </c>
       <c r="H5">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="I5">
-        <v>0.921</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="J5">
         <v>21</v>
@@ -3951,28 +3951,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.997</v>
+        <v>0.982</v>
       </c>
       <c r="C6">
-        <v>0.991</v>
+        <v>0.967</v>
       </c>
       <c r="D6">
-        <v>0.982</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="E6">
-        <v>0.967</v>
+        <v>0.897</v>
       </c>
       <c r="F6">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="G6">
-        <v>0.986</v>
+        <v>0.954</v>
       </c>
       <c r="H6">
-        <v>0.974</v>
+        <v>0.916</v>
       </c>
       <c r="I6">
-        <v>0.954</v>
+        <v>0.865</v>
       </c>
       <c r="J6">
         <v>24</v>
@@ -3983,28 +3983,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.998</v>
+        <v>0.987</v>
       </c>
       <c r="C7">
-        <v>0.995</v>
+        <v>0.97</v>
       </c>
       <c r="D7">
-        <v>0.987</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="E7">
-        <v>0.97</v>
+        <v>0.899</v>
       </c>
       <c r="F7">
-        <v>0.995</v>
+        <v>0.978</v>
       </c>
       <c r="G7">
-        <v>0.99</v>
+        <v>0.956</v>
       </c>
       <c r="H7">
-        <v>0.978</v>
+        <v>0.916</v>
       </c>
       <c r="I7">
-        <v>0.956</v>
+        <v>0.864</v>
       </c>
       <c r="J7">
         <v>45</v>
@@ -4015,28 +4015,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="C8">
-        <v>0.999</v>
+        <v>0.979</v>
       </c>
       <c r="D8">
-        <v>0.993</v>
+        <v>0.954</v>
       </c>
       <c r="E8">
-        <v>0.979</v>
+        <v>0.918</v>
       </c>
       <c r="F8">
-        <v>0.997</v>
+        <v>0.985</v>
       </c>
       <c r="G8">
-        <v>0.994</v>
+        <v>0.966</v>
       </c>
       <c r="H8">
-        <v>0.985</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="I8">
-        <v>0.966</v>
+        <v>0.884</v>
       </c>
       <c r="J8">
         <v>66</v>
@@ -4047,28 +4047,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="D9">
-        <v>0.997</v>
+        <v>0.974</v>
       </c>
       <c r="E9">
+        <v>0.953</v>
+      </c>
+      <c r="F9">
         <v>0.989</v>
       </c>
-      <c r="F9">
-        <v>0.997</v>
-      </c>
       <c r="G9">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="H9">
-        <v>0.989</v>
+        <v>0.953</v>
       </c>
       <c r="I9">
-        <v>0.977</v>
+        <v>0.918</v>
       </c>
       <c r="J9">
         <v>128</v>
@@ -4079,28 +4079,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D10">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="E10">
-        <v>0.994</v>
+        <v>0.968</v>
       </c>
       <c r="F10">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="G10">
-        <v>0.995</v>
+        <v>0.981</v>
       </c>
       <c r="H10">
-        <v>0.991</v>
+        <v>0.962</v>
       </c>
       <c r="I10">
-        <v>0.981</v>
+        <v>0.931</v>
       </c>
       <c r="J10">
         <v>206</v>
@@ -4114,25 +4114,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E11">
-        <v>0.999</v>
+        <v>0.986</v>
       </c>
       <c r="F11">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G11">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H11">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="I11">
-        <v>0.986</v>
+        <v>0.949</v>
       </c>
       <c r="J11">
         <v>716</v>
@@ -4188,28 +4188,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.9340000000000001</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="C2">
-        <v>0.884</v>
+        <v>0.753</v>
       </c>
       <c r="D2">
-        <v>0.8169999999999999</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="E2">
-        <v>0.753</v>
+        <v>0.637</v>
       </c>
       <c r="F2">
-        <v>0.931</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="G2">
-        <v>0.879</v>
+        <v>0.746</v>
       </c>
       <c r="H2">
-        <v>0.8120000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="I2">
-        <v>0.746</v>
+        <v>0.625</v>
       </c>
       <c r="J2">
         <v>15</v>
@@ -4220,28 +4220,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.9330000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="C3">
-        <v>0.906</v>
+        <v>0.835</v>
       </c>
       <c r="D3">
-        <v>0.875</v>
+        <v>0.791</v>
       </c>
       <c r="E3">
-        <v>0.835</v>
+        <v>0.751</v>
       </c>
       <c r="F3">
-        <v>0.93</v>
+        <v>0.869</v>
       </c>
       <c r="G3">
-        <v>0.902</v>
+        <v>0.826</v>
       </c>
       <c r="H3">
-        <v>0.869</v>
+        <v>0.777</v>
       </c>
       <c r="I3">
-        <v>0.826</v>
+        <v>0.73</v>
       </c>
       <c r="J3">
         <v>22</v>
@@ -4252,28 +4252,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.971</v>
+        <v>0.96</v>
       </c>
       <c r="C4">
-        <v>0.967</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D4">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="E4">
-        <v>0.9419999999999999</v>
+        <v>0.869</v>
       </c>
       <c r="F4">
-        <v>0.967</v>
+        <v>0.951</v>
       </c>
       <c r="G4">
-        <v>0.961</v>
+        <v>0.929</v>
       </c>
       <c r="H4">
-        <v>0.951</v>
+        <v>0.89</v>
       </c>
       <c r="I4">
-        <v>0.929</v>
+        <v>0.837</v>
       </c>
       <c r="J4">
         <v>36</v>
@@ -4284,28 +4284,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="C5">
-        <v>0.999</v>
+        <v>0.977</v>
       </c>
       <c r="D5">
-        <v>0.993</v>
+        <v>0.946</v>
       </c>
       <c r="E5">
-        <v>0.977</v>
+        <v>0.901</v>
       </c>
       <c r="F5">
-        <v>0.997</v>
+        <v>0.985</v>
       </c>
       <c r="G5">
-        <v>0.994</v>
+        <v>0.965</v>
       </c>
       <c r="H5">
-        <v>0.985</v>
+        <v>0.925</v>
       </c>
       <c r="I5">
-        <v>0.965</v>
+        <v>0.868</v>
       </c>
       <c r="J5">
         <v>57</v>
@@ -4316,28 +4316,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="C6">
-        <v>0.996</v>
+        <v>0.98</v>
       </c>
       <c r="D6">
-        <v>0.992</v>
+        <v>0.957</v>
       </c>
       <c r="E6">
-        <v>0.98</v>
+        <v>0.924</v>
       </c>
       <c r="F6">
-        <v>0.996</v>
+        <v>0.984</v>
       </c>
       <c r="G6">
-        <v>0.992</v>
+        <v>0.967</v>
       </c>
       <c r="H6">
-        <v>0.984</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="I6">
-        <v>0.967</v>
+        <v>0.889</v>
       </c>
       <c r="J6">
         <v>55</v>
@@ -4348,28 +4348,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
       <c r="C7">
-        <v>0.998</v>
+        <v>0.987</v>
       </c>
       <c r="D7">
-        <v>0.994</v>
+        <v>0.974</v>
       </c>
       <c r="E7">
-        <v>0.987</v>
+        <v>0.954</v>
       </c>
       <c r="F7">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="G7">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="H7">
-        <v>0.986</v>
+        <v>0.952</v>
       </c>
       <c r="I7">
-        <v>0.974</v>
+        <v>0.917</v>
       </c>
       <c r="J7">
         <v>106</v>
@@ -4380,28 +4380,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D8">
-        <v>0.999</v>
+        <v>0.984</v>
       </c>
       <c r="E8">
-        <v>0.994</v>
+        <v>0.968</v>
       </c>
       <c r="F8">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="G8">
-        <v>0.995</v>
+        <v>0.982</v>
       </c>
       <c r="H8">
-        <v>0.991</v>
+        <v>0.962</v>
       </c>
       <c r="I8">
-        <v>0.982</v>
+        <v>0.931</v>
       </c>
       <c r="J8">
         <v>130</v>
@@ -4412,28 +4412,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D9">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="E9">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="F9">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="G9">
-        <v>0.995</v>
+        <v>0.982</v>
       </c>
       <c r="H9">
-        <v>0.991</v>
+        <v>0.966</v>
       </c>
       <c r="I9">
-        <v>0.982</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J9">
         <v>210</v>
@@ -4447,25 +4447,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E10">
-        <v>0.998</v>
+        <v>0.985</v>
       </c>
       <c r="F10">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G10">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H10">
-        <v>0.993</v>
+        <v>0.973</v>
       </c>
       <c r="I10">
-        <v>0.986</v>
+        <v>0.949</v>
       </c>
       <c r="J10">
         <v>429</v>
@@ -4479,25 +4479,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E11">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="F11">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G11">
-        <v>0.995</v>
+        <v>0.987</v>
       </c>
       <c r="H11">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="I11">
-        <v>0.987</v>
+        <v>0.951</v>
       </c>
       <c r="J11">
         <v>173</v>
